--- a/Tile Cal CIS Calib/CIS Updates/2022 2023 Jacky & Peter/Flag Updates.xlsx
+++ b/Tile Cal CIS Calib/CIS Updates/2022 2023 Jacky & Peter/Flag Updates.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter Camporeale\Documents\Research\CERN ATLAS 2022-2023\Tile-CIS-group\CIS Updates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter Camporeale\Documents\Research\CERN ATLAS 2022-2023\Tile-CIS-group\Tile Cal CIS Calib\CIS Updates\2022 2023 Jacky &amp; Peter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA784C94-A95D-41BB-A72E-4B9BD4DC115F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D5BFCA-F649-4D47-8839-D5566C327FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7500" windowHeight="6000" xr2:uid="{51C3CB71-5024-4996-BCC0-478F61F63DFE}"/>
+    <workbookView xWindow="3624" yWindow="3684" windowWidth="12948" windowHeight="7944" xr2:uid="{51C3CB71-5024-4996-BCC0-478F61F63DFE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="September 2022" sheetId="2" r:id="rId1"/>
+    <sheet name="August 2022" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Mark as Good (Remove BadCIS)</t>
   </si>
@@ -53,13 +54,25 @@
   </si>
   <si>
     <t>LBC_m44_c34_highgain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBA_m19_c41_highgain </t>
+  </si>
+  <si>
+    <t>EBC_m16_c36_lowgain</t>
+  </si>
+  <si>
+    <t>LBC_m13_c15_highgain</t>
+  </si>
+  <si>
+    <t>LBC_m13_c15_lowgain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +90,11 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -116,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -131,6 +149,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -446,11 +467,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF2EE4E-03F0-4650-AC7A-607ACD11D978}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121ECB9F-C056-4550-AEED-7C9D041BDFDD}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tile Cal CIS Calib/CIS Updates/2022 2023 Jacky & Peter/Flag Updates.xlsx
+++ b/Tile Cal CIS Calib/CIS Updates/2022 2023 Jacky & Peter/Flag Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter Camporeale\Documents\Research\CERN ATLAS 2022-2023\Tile-CIS-group\Tile Cal CIS Calib\CIS Updates\2022 2023 Jacky &amp; Peter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D5BFCA-F649-4D47-8839-D5566C327FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FEFC6E-AEB5-42F8-AE73-3251389E6AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3624" yWindow="3684" windowWidth="12948" windowHeight="7944" xr2:uid="{51C3CB71-5024-4996-BCC0-478F61F63DFE}"/>
   </bookViews>
@@ -471,7 +471,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B5" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tile Cal CIS Calib/CIS Updates/2022 2023 Jacky & Peter/Flag Updates.xlsx
+++ b/Tile Cal CIS Calib/CIS Updates/2022 2023 Jacky & Peter/Flag Updates.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter Camporeale\Documents\Research\CERN ATLAS 2022-2023\Tile-CIS-group\Tile Cal CIS Calib\CIS Updates\2022 2023 Jacky &amp; Peter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FEFC6E-AEB5-42F8-AE73-3251389E6AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B315B4A0-273E-4894-BDDD-D2E75E21F382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3624" yWindow="3684" windowWidth="12948" windowHeight="7944" xr2:uid="{51C3CB71-5024-4996-BCC0-478F61F63DFE}"/>
+    <workbookView xWindow="3276" yWindow="3336" windowWidth="12948" windowHeight="7944" xr2:uid="{51C3CB71-5024-4996-BCC0-478F61F63DFE}"/>
   </bookViews>
   <sheets>
-    <sheet name="September 2022" sheetId="2" r:id="rId1"/>
-    <sheet name="August 2022" sheetId="1" r:id="rId2"/>
+    <sheet name="October 2022" sheetId="3" r:id="rId1"/>
+    <sheet name="September 2022" sheetId="2" r:id="rId2"/>
+    <sheet name="August 2022" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Mark as Good (Remove BadCIS)</t>
   </si>
@@ -66,13 +67,19 @@
   </si>
   <si>
     <t>LBC_m13_c15_lowgain</t>
+  </si>
+  <si>
+    <t>LBC_m20_c37_highgain</t>
+  </si>
+  <si>
+    <t>LBC_m20_c37_lowgain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +102,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -134,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -152,6 +165,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -467,11 +486,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF2EE4E-03F0-4650-AC7A-607ACD11D978}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3722913E-365D-4262-BF4E-9ED732B4CE06}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B2:B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,25 +508,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="6" t="s">
-        <v>6</v>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
+      <c r="B3" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>8</v>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="B5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -515,6 +532,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF2EE4E-03F0-4650-AC7A-607ACD11D978}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="A1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121ECB9F-C056-4550-AEED-7C9D041BDFDD}">
   <dimension ref="A1:B3"/>
   <sheetViews>

--- a/Tile Cal CIS Calib/CIS Updates/2022 2023 Jacky & Peter/Flag Updates.xlsx
+++ b/Tile Cal CIS Calib/CIS Updates/2022 2023 Jacky & Peter/Flag Updates.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter Camporeale\Documents\Research\CERN ATLAS 2022-2023\Tile-CIS-group\Tile Cal CIS Calib\CIS Updates\2022 2023 Jacky &amp; Peter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B315B4A0-273E-4894-BDDD-D2E75E21F382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED6CB4F-9A6B-49A8-B2AC-7E5A808DEC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3276" yWindow="3336" windowWidth="12948" windowHeight="7944" xr2:uid="{51C3CB71-5024-4996-BCC0-478F61F63DFE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{51C3CB71-5024-4996-BCC0-478F61F63DFE}"/>
   </bookViews>
   <sheets>
-    <sheet name="October 2022" sheetId="3" r:id="rId1"/>
+    <sheet name="November 2022" sheetId="3" r:id="rId1"/>
     <sheet name="September 2022" sheetId="2" r:id="rId2"/>
     <sheet name="August 2022" sheetId="1" r:id="rId3"/>
   </sheets>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Mark as Good (Remove BadCIS)</t>
   </si>
@@ -69,17 +69,20 @@
     <t>LBC_m13_c15_lowgain</t>
   </si>
   <si>
-    <t>LBC_m20_c37_highgain</t>
-  </si>
-  <si>
-    <t>LBC_m20_c37_lowgain</t>
+    <t>EBA_m12_c36_highgain</t>
+  </si>
+  <si>
+    <t>EBC_m30_c11_highgain</t>
+  </si>
+  <si>
+    <t>EBC_m30_c11_lowgain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,8 +109,26 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF7030A0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -147,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -167,12 +188,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,7 +519,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,36 +527,41 @@
     <col min="1" max="2" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="8" t="s">
-        <v>10</v>
-      </c>
+    <row r="3" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
       <c r="B5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Tile Cal CIS Calib/CIS Updates/2022 2023 Jacky & Peter/Flag Updates.xlsx
+++ b/Tile Cal CIS Calib/CIS Updates/2022 2023 Jacky & Peter/Flag Updates.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter Camporeale\Documents\Research\CERN ATLAS 2022-2023\Tile-CIS-group\Tile Cal CIS Calib\CIS Updates\2022 2023 Jacky &amp; Peter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED6CB4F-9A6B-49A8-B2AC-7E5A808DEC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C60602B-CBE3-4F5C-81A3-F80F60855BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{51C3CB71-5024-4996-BCC0-478F61F63DFE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{51C3CB71-5024-4996-BCC0-478F61F63DFE}"/>
   </bookViews>
   <sheets>
-    <sheet name="November 2022" sheetId="3" r:id="rId1"/>
-    <sheet name="September 2022" sheetId="2" r:id="rId2"/>
-    <sheet name="August 2022" sheetId="1" r:id="rId3"/>
+    <sheet name="February 2023" sheetId="4" r:id="rId1"/>
+    <sheet name="November 2022" sheetId="3" r:id="rId2"/>
+    <sheet name="September 2022" sheetId="2" r:id="rId3"/>
+    <sheet name="August 2022" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Mark as Good (Remove BadCIS)</t>
   </si>
@@ -76,13 +77,67 @@
   </si>
   <si>
     <t>EBC_m30_c11_lowgain</t>
+  </si>
+  <si>
+    <t>LBA_m02_c06_lowgain</t>
+  </si>
+  <si>
+    <t>LBA_m02_c06_highgain</t>
+  </si>
+  <si>
+    <t>LBA_m62_c26_highgain</t>
+  </si>
+  <si>
+    <t>LBA_m35_c08_highgain</t>
+  </si>
+  <si>
+    <t>LBA_m38_c46_lowgain</t>
+  </si>
+  <si>
+    <t>LBC_m62_c08_highgain</t>
+  </si>
+  <si>
+    <t>EBA_m16_c17_highgain</t>
+  </si>
+  <si>
+    <t>EBC_m34_c41_lowgain</t>
+  </si>
+  <si>
+    <t>LBA_m30_c13_lowgain</t>
+  </si>
+  <si>
+    <t>LBC_m19_c26_highgain</t>
+  </si>
+  <si>
+    <t>LBC_m57_c06_highgain</t>
+  </si>
+  <si>
+    <t>EBA_m40_c35_highgain</t>
+  </si>
+  <si>
+    <t>EBC_m20_c10_lowgain</t>
+  </si>
+  <si>
+    <t>EBC_m23_c01_lowgain</t>
+  </si>
+  <si>
+    <t>EBC_m34_c38_highgain</t>
+  </si>
+  <si>
+    <t>LBA_m03_c17_lowgain</t>
+  </si>
+  <si>
+    <t>LBA_m51_c12_highgain</t>
+  </si>
+  <si>
+    <t>EBC_m20_c31_highgain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +186,27 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -168,40 +244,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,11 +593,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2244AC6-0EEC-40D3-A825-368340C2A85E}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="24.77734375" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3722913E-365D-4262-BF4E-9ED732B4CE06}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,36 +725,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="8"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -565,7 +762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF2EE4E-03F0-4650-AC7A-607ACD11D978}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -587,24 +784,24 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -613,7 +810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121ECB9F-C056-4550-AEED-7C9D041BDFDD}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -635,7 +832,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -643,10 +840,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Tile Cal CIS Calib/CIS Updates/2022 2023 Jacky & Peter/Flag Updates.xlsx
+++ b/Tile Cal CIS Calib/CIS Updates/2022 2023 Jacky & Peter/Flag Updates.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter Camporeale\Documents\Research\CERN ATLAS 2022-2023\Tile-CIS-group\Tile Cal CIS Calib\CIS Updates\2022 2023 Jacky &amp; Peter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C60602B-CBE3-4F5C-81A3-F80F60855BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F46EF2-D3CD-4494-AC6D-7ACCE3456708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{51C3CB71-5024-4996-BCC0-478F61F63DFE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="15150" xr2:uid="{51C3CB71-5024-4996-BCC0-478F61F63DFE}"/>
   </bookViews>
   <sheets>
-    <sheet name="February 2023" sheetId="4" r:id="rId1"/>
-    <sheet name="November 2022" sheetId="3" r:id="rId2"/>
-    <sheet name="September 2022" sheetId="2" r:id="rId3"/>
-    <sheet name="August 2022" sheetId="1" r:id="rId4"/>
+    <sheet name="March 2023" sheetId="5" r:id="rId1"/>
+    <sheet name="February 2023" sheetId="4" r:id="rId2"/>
+    <sheet name="November 2022" sheetId="3" r:id="rId3"/>
+    <sheet name="September 2022" sheetId="2" r:id="rId4"/>
+    <sheet name="August 2022" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>Mark as Good (Remove BadCIS)</t>
   </si>
@@ -131,6 +132,24 @@
   </si>
   <si>
     <t>EBC_m20_c31_highgain</t>
+  </si>
+  <si>
+    <t>EBA_m48_c37_highgain</t>
+  </si>
+  <si>
+    <t>EBC_m59_c32_lowgain</t>
+  </si>
+  <si>
+    <t>LBA_m42_c07_highgain</t>
+  </si>
+  <si>
+    <t>LBC_m20_c37_highgain</t>
+  </si>
+  <si>
+    <t>EBC_m16_c39_highgain</t>
+  </si>
+  <si>
+    <t>EBC_m23_c31_lowgain</t>
   </si>
 </sst>
 </file>
@@ -244,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -269,11 +288,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -593,116 +608,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2244AC6-0EEC-40D3-A825-368340C2A85E}">
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389599CB-D1AF-423E-A34D-E5EF30783F72}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="24.77734375" style="10" customWidth="1"/>
+    <col min="1" max="2" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="s">
-        <v>29</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -712,6 +671,124 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2244AC6-0EEC-40D3-A825-368340C2A85E}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="24.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3722913E-365D-4262-BF4E-9ED732B4CE06}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -762,7 +839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF2EE4E-03F0-4650-AC7A-607ACD11D978}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -810,7 +887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121ECB9F-C056-4550-AEED-7C9D041BDFDD}">
   <dimension ref="A1:B3"/>
   <sheetViews>

--- a/Tile Cal CIS Calib/CIS Updates/2022 2023 Jacky & Peter/Flag Updates.xlsx
+++ b/Tile Cal CIS Calib/CIS Updates/2022 2023 Jacky & Peter/Flag Updates.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter Camporeale\Documents\Research\CERN ATLAS 2022-2023\Tile-CIS-group\Tile Cal CIS Calib\CIS Updates\2022 2023 Jacky &amp; Peter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F46EF2-D3CD-4494-AC6D-7ACCE3456708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FAEF31-9E53-4641-ACCE-A1A41A0FFF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="15150" xr2:uid="{51C3CB71-5024-4996-BCC0-478F61F63DFE}"/>
   </bookViews>
   <sheets>
-    <sheet name="March 2023" sheetId="5" r:id="rId1"/>
-    <sheet name="February 2023" sheetId="4" r:id="rId2"/>
-    <sheet name="November 2022" sheetId="3" r:id="rId3"/>
-    <sheet name="September 2022" sheetId="2" r:id="rId4"/>
-    <sheet name="August 2022" sheetId="1" r:id="rId5"/>
+    <sheet name="April 2023" sheetId="6" r:id="rId1"/>
+    <sheet name="March 2023" sheetId="5" r:id="rId2"/>
+    <sheet name="February 2023" sheetId="4" r:id="rId3"/>
+    <sheet name="November 2022" sheetId="3" r:id="rId4"/>
+    <sheet name="September 2022" sheetId="2" r:id="rId5"/>
+    <sheet name="August 2022" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Mark as Good (Remove BadCIS)</t>
   </si>
@@ -150,6 +151,15 @@
   </si>
   <si>
     <t>EBC_m23_c31_lowgain</t>
+  </si>
+  <si>
+    <t>EBA_m05_c10_lowgain</t>
+  </si>
+  <si>
+    <t>EBA_m09_c16_lowgain</t>
+  </si>
+  <si>
+    <t>EBA_m13_c04_lowgain</t>
   </si>
 </sst>
 </file>
@@ -608,19 +618,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389599CB-D1AF-423E-A34D-E5EF30783F72}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAB1234-0E12-4592-AA2F-266CA644CC06}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.77734375" customWidth="1"/>
+    <col min="1" max="2" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -628,41 +638,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B3" s="12"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -671,6 +662,69 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389599CB-D1AF-423E-A34D-E5EF30783F72}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2244AC6-0EEC-40D3-A825-368340C2A85E}">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -678,12 +732,12 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.77734375" customWidth="1"/>
+    <col min="1" max="2" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -691,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -699,7 +753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -707,77 +761,77 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>29</v>
       </c>
@@ -788,7 +842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3722913E-365D-4262-BF4E-9ED732B4CE06}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -796,12 +850,12 @@
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.77734375" customWidth="1"/>
+    <col min="1" max="2" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -809,7 +863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -817,19 +871,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="8"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="4"/>
     </row>
@@ -839,7 +893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF2EE4E-03F0-4650-AC7A-607ACD11D978}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -847,12 +901,12 @@
       <selection activeCell="B6" sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.77734375" customWidth="1"/>
+    <col min="1" max="2" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,24 +914,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -887,7 +941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121ECB9F-C056-4550-AEED-7C9D041BDFDD}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -895,12 +949,12 @@
       <selection activeCell="B3" sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.77734375" customWidth="1"/>
+    <col min="1" max="2" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -908,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -916,7 +970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>

--- a/Tile Cal CIS Calib/CIS Updates/2022 2023 Jacky & Peter/Flag Updates.xlsx
+++ b/Tile Cal CIS Calib/CIS Updates/2022 2023 Jacky & Peter/Flag Updates.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter Camporeale\Documents\Research\CERN ATLAS 2022-2023\Tile-CIS-group\Tile Cal CIS Calib\CIS Updates\2022 2023 Jacky &amp; Peter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FAEF31-9E53-4641-ACCE-A1A41A0FFF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9ED8363-DD52-48CE-A0A3-80A5EB7FCD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="15150" xr2:uid="{51C3CB71-5024-4996-BCC0-478F61F63DFE}"/>
   </bookViews>
   <sheets>
-    <sheet name="April 2023" sheetId="6" r:id="rId1"/>
-    <sheet name="March 2023" sheetId="5" r:id="rId2"/>
-    <sheet name="February 2023" sheetId="4" r:id="rId3"/>
-    <sheet name="November 2022" sheetId="3" r:id="rId4"/>
-    <sheet name="September 2022" sheetId="2" r:id="rId5"/>
-    <sheet name="August 2022" sheetId="1" r:id="rId6"/>
+    <sheet name="May 2023" sheetId="7" r:id="rId1"/>
+    <sheet name="April 2023" sheetId="6" r:id="rId2"/>
+    <sheet name="March 2023" sheetId="5" r:id="rId3"/>
+    <sheet name="February 2023" sheetId="4" r:id="rId4"/>
+    <sheet name="November 2022" sheetId="3" r:id="rId5"/>
+    <sheet name="September 2022" sheetId="2" r:id="rId6"/>
+    <sheet name="August 2022" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>Mark as Good (Remove BadCIS)</t>
   </si>
@@ -160,6 +161,27 @@
   </si>
   <si>
     <t>EBA_m13_c04_lowgain</t>
+  </si>
+  <si>
+    <t>EBC_m15_c16_highgain</t>
+  </si>
+  <si>
+    <t>EBC_m55_c01_highgain</t>
+  </si>
+  <si>
+    <t>LBC_m35_c45_highgain</t>
+  </si>
+  <si>
+    <t>LBC_m35_c45_lowgain</t>
+  </si>
+  <si>
+    <t>LBC_m44_c34_lowgain</t>
+  </si>
+  <si>
+    <t>LBA_m04_c44_highgain</t>
+  </si>
+  <si>
+    <t>LBA_m04_c44_lowgain</t>
   </si>
 </sst>
 </file>
@@ -618,11 +640,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC75F9E7-0CBD-4A93-ACFC-2064E2769D9E}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAB1234-0E12-4592-AA2F-266CA644CC06}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389599CB-D1AF-423E-A34D-E5EF30783F72}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -724,7 +806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2244AC6-0EEC-40D3-A825-368340C2A85E}">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -842,7 +924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3722913E-365D-4262-BF4E-9ED732B4CE06}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -893,7 +975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF2EE4E-03F0-4650-AC7A-607ACD11D978}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -941,7 +1023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121ECB9F-C056-4550-AEED-7C9D041BDFDD}">
   <dimension ref="A1:B3"/>
   <sheetViews>
